--- a/excel2mysql/excels/goods.xlsx
+++ b/excel2mysql/excels/goods.xlsx
@@ -19,23 +19,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>goods_id</t>
   </si>
   <si>
-    <t>无注释</t>
+    <t>int(15)|PRI|</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>rmb</t>
   </si>
   <si>
+    <t>int(11)||</t>
+  </si>
+  <si>
     <t>diamond</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>varchar(255)||</t>
+  </si>
+  <si>
     <t>商品名称</t>
   </si>
   <si>
@@ -58,6 +67,9 @@
   </si>
   <si>
     <t>special_offer_begin</t>
+  </si>
+  <si>
+    <t>timestamp(6)||</t>
   </si>
   <si>
     <t>特价开始时间</t>
@@ -429,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,31 +452,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -472,77 +484,77 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>42943.585497685184</v>
-      </c>
-      <c r="I3" s="1">
-        <v>42944.585555555554</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -565,16 +577,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -597,16 +609,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -629,7 +641,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>15</v>
@@ -638,7 +650,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -661,7 +673,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -670,7 +682,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -693,7 +705,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -702,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -725,7 +737,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -734,7 +746,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -757,7 +769,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -766,7 +778,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -784,12 +796,12 @@
         <v>42944.585555555554</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>15</v>
@@ -798,7 +810,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -821,7 +833,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -830,7 +842,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -853,7 +865,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>15</v>
@@ -862,7 +874,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -885,7 +897,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -894,7 +906,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -917,7 +929,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -926,7 +938,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -949,7 +961,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -958,7 +970,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -976,6 +988,38 @@
         <v>42944.585555555554</v>
       </c>
       <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>42943.585497685184</v>
+      </c>
+      <c r="I18" s="1">
+        <v>42944.585555555554</v>
+      </c>
+      <c r="J18">
         <v>2</v>
       </c>
     </row>
